--- a/MatchOdds/odds_history.xlsx
+++ b/MatchOdds/odds_history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Facultate\rpa-project\MatchOdds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8730267C-1F73-428E-8634-16774F3A873A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787F8B00-A9C5-45A6-A12D-224192AC014A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{E82F0732-8FCD-4D34-B26C-0BC22D133F22}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
   <si>
     <t>CF Monterrey vs Queretaro FC</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>EFortuna-Team2Odds</t>
+  </si>
+  <si>
+    <t>Inter Milano vs SS Lazio</t>
+  </si>
+  <si>
+    <t>Villarreal CF vs Atletico Madrid</t>
   </si>
 </sst>
 </file>
@@ -420,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10A555F-E4A5-4297-9882-2D97D07A3A37}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="A1:XFD1048576"/>
@@ -617,6 +623,162 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44805.8125</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3.52</v>
+      </c>
+      <c r="D8">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44805.90625</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1.39</v>
+      </c>
+      <c r="D9">
+        <v>9.75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44805.916666666664</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>2.91</v>
+      </c>
+      <c r="D10">
+        <v>2.73</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44805.8125</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3.54</v>
+      </c>
+      <c r="D11">
+        <v>2.31</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44805.90625</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>1.39</v>
+      </c>
+      <c r="D12">
+        <v>10.15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44805.916666666664</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>2.91</v>
+      </c>
+      <c r="D13">
+        <v>2.73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MatchOdds/odds_history.xlsx
+++ b/MatchOdds/odds_history.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Facultate\rpa-project\MatchOdds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787F8B00-A9C5-45A6-A12D-224192AC014A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD56FF7A-28FE-447F-887C-25CCD7949750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{E82F0732-8FCD-4D34-B26C-0BC22D133F22}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{E82F0732-8FCD-4D34-B26C-0BC22D133F22}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="17">
   <si>
     <t>CF Monterrey vs Queretaro FC</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>Villarreal CF vs Atletico Madrid</t>
+  </si>
+  <si>
+    <t>Manchester United vs Aston Villa</t>
+  </si>
+  <si>
+    <t>Senegal vs Zimbabwe</t>
+  </si>
+  <si>
+    <t>Torino FC vs AC Fiorentina</t>
   </si>
 </sst>
 </file>
@@ -426,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10A555F-E4A5-4297-9882-2D97D07A3A37}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:XFD1048576"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,6 +788,150 @@
         <v>2</v>
       </c>
     </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44835.913194444445</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1.75</v>
+      </c>
+      <c r="D14">
+        <v>5.17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44835.625</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>1.31</v>
+      </c>
+      <c r="D15">
+        <v>10.75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44835.75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>2.95</v>
+      </c>
+      <c r="D16">
+        <v>2.37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44835.913194444445</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>1.75</v>
+      </c>
+      <c r="D17">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44835.625</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>1.31</v>
+      </c>
+      <c r="D18">
+        <v>11.25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>44835.75</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>2.95</v>
+      </c>
+      <c r="D19">
+        <v>2.37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
